--- a/biology/Botanique/Herbe_à_éléphant/Herbe_à_éléphant.xlsx
+++ b/biology/Botanique/Herbe_à_éléphant/Herbe_à_éléphant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herbe_%C3%A0_%C3%A9l%C3%A9phant</t>
+          <t>Herbe_à_éléphant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Herbe à éléphant » est l'un des noms vernaculaires de plusieurs espèces de plantes herbacées de la famille des Poaceae (graminées). Ce sont généralement des herbes assez hautes. On en trouve notamment dans les savanes. Certaines d'entre elles sont réellement appréciées par les éléphants, mais le nom a pu être donné par excès à d'autres espèces.
 Il s'agit d'espèces appartenant, entre autres, aux genres Miscanthus et Pennisetum :
